--- a/Case/rlz-add1.xlsx
+++ b/Case/rlz-add1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
   <si>
     <t>编号0</t>
   </si>
@@ -135,9 +135,6 @@
     <t>yes</t>
   </si>
   <si>
-    <t>白水社区站</t>
-  </si>
-  <si>
     <t>五分公司</t>
   </si>
   <si>
@@ -184,6 +181,14 @@
   </si>
   <si>
     <t>yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桂名园站</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -629,7 +634,7 @@
   <dimension ref="A1:AJ2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AI2" sqref="D2:AI2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -766,22 +771,22 @@
         <v>37</v>
       </c>
       <c r="D2" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="F2" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="12" t="s">
+      <c r="H2" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="13" t="s">
-        <v>41</v>
-      </c>
       <c r="I2" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J2" s="11">
         <v>1000</v>
@@ -795,40 +800,44 @@
       <c r="M2" s="12">
         <v>0</v>
       </c>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
+      <c r="N2" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="O2" s="12">
+        <v>13245654657</v>
+      </c>
       <c r="P2" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q2" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="R2" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="R2" s="12" t="s">
+      <c r="S2" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="S2" s="12" t="s">
+      <c r="T2" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="U2" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="T2" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="U2" s="12" t="s">
+      <c r="V2" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="V2" s="12" t="s">
+      <c r="W2" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="W2" s="12" t="s">
+      <c r="X2" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="X2" s="12" t="s">
+      <c r="Y2" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="Y2" s="12" t="s">
+      <c r="Z2" s="12" t="s">
         <v>50</v>
-      </c>
-      <c r="Z2" s="12" t="s">
-        <v>51</v>
       </c>
       <c r="AA2" s="12"/>
       <c r="AB2" s="12">
@@ -836,23 +845,23 @@
       </c>
       <c r="AC2" s="12"/>
       <c r="AD2" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AE2" s="10" t="s">
         <v>37</v>
       </c>
       <c r="AF2" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AG2" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AH2" s="12" t="s">
         <v>37</v>
       </c>
       <c r="AI2" s="14"/>
       <c r="AJ2" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
